--- a/biology/Botanique/Lithops_hookeri/Lithops_hookeri.xlsx
+++ b/biology/Botanique/Lithops_hookeri/Lithops_hookeri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lithops hookeri est une espèce de plante vivace du genre Lithops, de la famille des Aizoaceae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lithops hookeri est une espèce de plante vivace du genre Lithops, de la famille des Aizoaceae. 
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est originaire d'Afrique du Sud. Elle y figure sur la liste rouge des espèces menacées.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme les autres  Lithops, sa morphologie typique présente deux feuilles épaisses et charnues dont la partie supérieure est formée d'un tissus translucide qui laisse entrer la lumière dans la partie souterraine de la plante. Les feuilles sont de tailles variées avec en surfaces un dessin différent selon les espèces. Ces feuilles sont séparées par une fissure d'où apparaît une fleur à la fin du printemps
 </t>
